--- a/OBLIGATORIO PARALELO/Modelo Testing.xlsx
+++ b/OBLIGATORIO PARALELO/Modelo Testing.xlsx
@@ -5,16 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gsilv\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gsilv\Documents\GitHub\Obligatorio-P1\OBLIGATORIO PARALELO\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12260" windowHeight="4190"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="109">
   <si>
     <t>#</t>
   </si>
@@ -41,35 +41,593 @@
     <t>¿Qué Obtuve?</t>
   </si>
   <si>
-    <t>Login administrador</t>
-  </si>
-  <si>
-    <t>admin y 1234</t>
-  </si>
-  <si>
-    <t>Ingresa al sistema, se muestran botones: de creación de anfitrión, cargar cotización, reporte inmuebles y cerrar sesión.</t>
-  </si>
-  <si>
-    <t>administrador y 4321</t>
-  </si>
-  <si>
-    <t>Mensaje de error y no ingresa</t>
-  </si>
-  <si>
-    <t>Error en login administrador</t>
-  </si>
-  <si>
-    <t>Ingresa y muestra. OK</t>
-  </si>
-  <si>
-    <t>No muestra mensaje. No ingresa. REVISAR</t>
+    <t>Ver inmuebles como visitante</t>
+  </si>
+  <si>
+    <t>Ver inmuebles como huésped</t>
+  </si>
+  <si>
+    <t>Ver inmuebles como anfitrión</t>
+  </si>
+  <si>
+    <t>Ordenar inmuebles descendente</t>
+  </si>
+  <si>
+    <t>Ordenar inmuebles ascendente</t>
+  </si>
+  <si>
+    <t>Elegir moneda $</t>
+  </si>
+  <si>
+    <t>Elegir moneda U$S</t>
+  </si>
+  <si>
+    <t>Buscar inmuebles con titulo</t>
+  </si>
+  <si>
+    <t>Buscar inmuebles con descripcion</t>
+  </si>
+  <si>
+    <t>Buscar inmuebles con ciudad</t>
+  </si>
+  <si>
+    <t>Buscar inmuebles con titulo con mayusculas</t>
+  </si>
+  <si>
+    <t>Buscar inmuebles con titulo con tildes</t>
+  </si>
+  <si>
+    <t>Registrar usuario dejando campo nombre vacío</t>
+  </si>
+  <si>
+    <t>Registrar usuario dejando campo apellido vacío</t>
+  </si>
+  <si>
+    <t>Registrar usuario dejando campo email vacío</t>
+  </si>
+  <si>
+    <t>Registrar usuario dejando campo telefono vacío</t>
+  </si>
+  <si>
+    <t>Registrar usuario dejando campo contraseña vacío</t>
+  </si>
+  <si>
+    <t>Registrar usuario dejando campo reingreso contraseña vacío</t>
+  </si>
+  <si>
+    <t>Registrar usuario usando dato usuario ya creado anteriormente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Registro usuario con formato mail distinto a “*@*.*” </t>
+  </si>
+  <si>
+    <t>Registrar usuario con celular de mas de 8 digitos</t>
+  </si>
+  <si>
+    <t>Registrar usuario con contraseña de menos de 6 caracteres</t>
+  </si>
+  <si>
+    <t>Registrar usuario con contraseña sin mayuscula</t>
+  </si>
+  <si>
+    <t>Login con nombre de usuario no existente</t>
+  </si>
+  <si>
+    <t>Login con contraseña incorrecta</t>
+  </si>
+  <si>
+    <t>Login con campo vacío</t>
+  </si>
+  <si>
+    <t>Registrar inmueble campo titulo vacio</t>
+  </si>
+  <si>
+    <t>Registrar inmueble campo descripcion vacio</t>
+  </si>
+  <si>
+    <t>Registrar inmueble campo ciudad vacio</t>
+  </si>
+  <si>
+    <t>Registrar inmueble campo precio por noche vacio</t>
+  </si>
+  <si>
+    <t>Agregar fotos seleccionando menos de 3 fotos</t>
+  </si>
+  <si>
+    <t>Cargar cotización nueva</t>
+  </si>
+  <si>
+    <t>Cargar cotizacion con campo vacío</t>
+  </si>
+  <si>
+    <t>Ingreso a la página</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ver todos los inmuebles </t>
+  </si>
+  <si>
+    <t>Mostrar todos los inmuebles activos ordenados por calificación</t>
+  </si>
+  <si>
+    <t>Logeo con usuario agus22 y clave bSaDfklj123</t>
+  </si>
+  <si>
+    <t>Logeo con usuario Camiiii_ok y clave Camilita123</t>
+  </si>
+  <si>
+    <t>Mostrar todos los inmuebles activos y ordenados por calificación del usuario Camiiii_ok</t>
+  </si>
+  <si>
+    <t>Ver todos los inmuebles del usuario camiii_ok activos</t>
+  </si>
+  <si>
+    <t>Elegi opcion descendente en select</t>
+  </si>
+  <si>
+    <t>Elegi opcion ascendente en select</t>
+  </si>
+  <si>
+    <t>Mostrar todos los inmuebles activos ordenados por calificación y por costo por noche descendente</t>
+  </si>
+  <si>
+    <t>Mostrar todos los inmuebles activos ordenados por calificación y por costo por noche ascendente</t>
+  </si>
+  <si>
+    <t>Ver todos los inmuebles ordenados por calificación y por costo por noche descendente</t>
+  </si>
+  <si>
+    <t>Ver todos los inmuebles ordenados por calificación y por costo por noche ascendente</t>
+  </si>
+  <si>
+    <t>Elijo moneda $ en select</t>
+  </si>
+  <si>
+    <t>Elijo moneda U$S en select</t>
+  </si>
+  <si>
+    <t>Mostrar costo por noche en inmuebles desplegados en $ con su simbolo correspondiente</t>
+  </si>
+  <si>
+    <t>Ver todos los inmuebles con costo por noche $</t>
+  </si>
+  <si>
+    <t>Ver todos los inmuebles con costo por noche U$S</t>
+  </si>
+  <si>
+    <t>Mostrar costo por noche en inmuebles desplegados en U$S con su simbolo correspondiente</t>
+  </si>
+  <si>
+    <t>Dionisio Lopez Y Av. Italia</t>
+  </si>
+  <si>
+    <t>Alquiler de casa en zona Buceo Dionisio Lopez y Av. Italia todo en planta baja, sin gtos. comunes.</t>
+  </si>
+  <si>
+    <t>Montevideo</t>
+  </si>
+  <si>
+    <t>DIONISIo Lopez Y Av. Italia</t>
+  </si>
+  <si>
+    <t>DÍÓNÍ´´SIO Lopez Y Av. Italia</t>
+  </si>
+  <si>
+    <t>Usuario: ""</t>
+  </si>
+  <si>
+    <t>Apellido: ""</t>
+  </si>
+  <si>
+    <t>Email: ""</t>
+  </si>
+  <si>
+    <t>Telefono: ""</t>
+  </si>
+  <si>
+    <t>Contraseña: ""</t>
+  </si>
+  <si>
+    <t>Reingreso contraseña: ""</t>
+  </si>
+  <si>
+    <t>Registrar usuario con contraseñas que no coincidan</t>
+  </si>
+  <si>
+    <t>Contraseña:1234 Reingreso contraseña: 4321</t>
+  </si>
+  <si>
+    <t>Nombre usuario: Camiiii_ok</t>
+  </si>
+  <si>
+    <t>Celular: 67864382462432</t>
+  </si>
+  <si>
+    <t>Mail: gerasaracinihotmail.com</t>
+  </si>
+  <si>
+    <t>Contraseña: 1234</t>
+  </si>
+  <si>
+    <t>Contraseña: gerardo1234</t>
+  </si>
+  <si>
+    <t>Usuario: GerardoPro</t>
+  </si>
+  <si>
+    <t>Usuario: Camiiii_ok Contraseña: Contraseñaerronea</t>
+  </si>
+  <si>
+    <t>Titulo: ""</t>
+  </si>
+  <si>
+    <t>Descripcion: ""</t>
+  </si>
+  <si>
+    <t>Ciudad: ""</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seleccione dos fotos en checkbox </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clickee deshabilitar deslogee y lo busque </t>
+  </si>
+  <si>
+    <t>Cargue cotizacion 43 y checkee si realmente modificó los precios</t>
+  </si>
+  <si>
+    <t>Cotizacion:""</t>
+  </si>
+  <si>
+    <t>Sacar informe de inmuebles con usuario administrador dejando campo vacío en desde</t>
+  </si>
+  <si>
+    <t>Mostrar inmueble id: 1</t>
+  </si>
+  <si>
+    <t>Muestra solo inmueble id:1</t>
+  </si>
+  <si>
+    <t>Mostrar 4 inmuebles</t>
+  </si>
+  <si>
+    <t>Muestra cuatro inmuebles</t>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>mensaje</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> += </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Ingrese datos válidos en el campo de usuario"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>mensaje</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> += </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Ingrese datos válidos en el campo de apellido.&lt;br&gt;"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>mensaje</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> += </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Email no válido.&lt;br&gt;"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>mensaje</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> += </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Teléfono no válido. Debe ser de 8 números.&lt;br&gt;"</t>
+    </r>
+  </si>
+  <si>
+    <t>"Las claves no coinciden o no es es valida. Recuerde incluir una mayuscula, una letra, un numero y la longitud de la clave debe ser mayor a 5 caracteres."</t>
+  </si>
+  <si>
+    <r>
+      <t>mensaje</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Complete Título"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>; }</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>{ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>mensaje</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Complete Descripción"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>; }</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t> { </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>mensaje</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Complete Ciudad"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>; }</t>
+    </r>
+  </si>
+  <si>
+    <t>Precio por noche:""</t>
+  </si>
+  <si>
+    <r>
+      <t>{ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>mensaje</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Complete Precio por Noche"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>; }</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>mensaje</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Seleccione al menos 3 fotos"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>; }</t>
+    </r>
+  </si>
+  <si>
+    <t>Habilitar y deshabilitar inmueble</t>
+  </si>
+  <si>
+    <t>Ver nueva cotizacion = 43 y nuevos precios por noche en dolares</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> mensaje = `El valor ingresado no es válido.`; }</t>
+  </si>
+  <si>
+    <t>`No existen resultados para su búsqueda`;</t>
+  </si>
+  <si>
+    <t>Titulo: hkdkjsahdsajhd</t>
+  </si>
+  <si>
+    <t>Buscar inmuebles con titulo inexistente</t>
+  </si>
+  <si>
+    <t>Campo desde:"" hasta:12000</t>
+  </si>
+  <si>
+    <t>Mostrar todos los inmuebles</t>
+  </si>
+  <si>
+    <t>No ver inmueble deshabilitado</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -85,14 +643,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <sz val="7"/>
+      <color rgb="FFD4D4D4"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FFCE9178"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF9CDCFE"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -111,13 +680,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -126,16 +690,14 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
+      <right/>
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -147,53 +709,36 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="medium">
+        <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="medium">
+        <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="medium">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -202,22 +747,30 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Incorrecto" xfId="1" builtinId="27"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -530,84 +1083,671 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E15" sqref="E15:E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.453125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="25.1796875" style="8" customWidth="1"/>
-    <col min="3" max="3" width="23" style="8" customWidth="1"/>
-    <col min="4" max="4" width="51.1796875" style="8" customWidth="1"/>
-    <col min="5" max="5" width="37.90625" style="8" customWidth="1"/>
-    <col min="6" max="6" width="19.54296875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="13.453125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.1796875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="23" style="4" customWidth="1"/>
+    <col min="4" max="4" width="51.1796875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="37.90625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="19.54296875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="49.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="2">
+    <row r="2" spans="1:6" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="C3" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="C4" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="9"/>
-      <c r="G2" s="10"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="C8" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="11" t="s">
+      <c r="B11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="F3" s="6"/>
-    </row>
-    <row r="4" spans="1:7" ht="58.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="5" spans="1:7" ht="58.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="6" spans="1:7" ht="58.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="1:7" ht="58.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="8" spans="1:7" ht="58.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="9" spans="1:7" ht="58.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="10" spans="1:7" ht="58.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="11" spans="1:7" ht="58.5" customHeight="1" x14ac:dyDescent="0.35"/>
+      <c r="B13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="24" x14ac:dyDescent="0.35">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
